--- a/app/Recursos Marcas/Naranjas/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Naranjas/Plantilla modificada.xlsx
@@ -262,82 +262,82 @@
     <t>Rosa</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Liria+Cebra/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Liria+Cebra/Liria+Cebra+1+Amarillo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Liria+Cebra/Liria+Cebra+2+Amarillo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Liria+Cebra/Liria+Cebra+3+Amarillo.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Chita/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Chita/Tiana+Chita+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Chita/Tiana+Chita+2+Blanco.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+White/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+White/Box+White+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+White/Box+White+2+Blanco.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Liria+Cebra/Liria+Cebra+1+Amarillo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Liria+Cebra/Liria+Cebra+2+Amarillo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Liria+Cebra/Liria+Cebra+3+Amarillo.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Chita/Tiana+Chita+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Chita/Tiana+Chita+2+Blanco.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+White/Box+White+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+White/Box+White+2+Blanco.jpg']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Alina/alina+1+gris.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Alina/alina+2+gris.jpg']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros/Tiana+Negro+3+Negros.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros/Tiana+Negros+1+Negros.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros/Tiana+Negros+2+Negros.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Verona/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Verona/Verona+1+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Coquito+Rojo/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Coquito+Rojo/Coquito++2+Rojo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Coquito+Rojo/Coquito+1+Rojo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Coquito+Rojo/Coquito+3+Rojo.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros+Chita/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros+Chita/Tiana+Negros+Chita+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros+Chita/Tiana+Negros+Chita+2+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Plata/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Plata/Tiana+Plata+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Plata/Tiana+Plata+2+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Plata/Tiana+Plata+3+Blanco.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Africa/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Africa/Ojana+Africa+1+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+Gris/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+Gris/box+gris+1+gris.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Ostra/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Ostra/Tiana+Ostra+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Ostra/Tiana+Ostra+2+Blanco.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Fucsia/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Fucsia/Fucsia+1+Fucsia.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros/Tiana+Negro+3+Negros.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros/Tiana+Negros+1+Negros.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros/Tiana+Negros+2+Negros.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Verona/Verona+1+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Coquito+Rojo/Coquito++2+Rojo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Coquito+Rojo/Coquito+1+Rojo.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Coquito+Rojo/Coquito+3+Rojo.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros+Chita/Tiana+Negros+Chita+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Negros+Chita/Tiana+Negros+Chita+2+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Plata/Tiana+Plata+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Plata/Tiana+Plata+2+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Plata/Tiana+Plata+3+Blanco.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Africa/Ojana+Africa+1+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Box+Gris/box+gris+1+gris.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Ostra/Tiana+Ostra+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Ostra/Tiana+Ostra+2+Blanco.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Fucsia/Fucsia+1+Fucsia.jpg']</t>
   </si>
   <si>
     <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Boston+Blanco+Ostra/boston+blanco++ostra+1+blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Boston+Blanco+Ostra/boston+blanco+ostra+2+blanco.jpg']</t>
   </si>
   <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Rose+Blancos/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Rose+Blancos/Rose+Blancos+1+Verde.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Rose+Blancos/Rose+Blancos+2+Verde.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Rose+Blancos/Rose+Blancos+3+Verde.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Estelares+Blanco+Ostra/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Estelares+Blanco+Ostra/Estelares+Blanco+Ostra+1+Blancos.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Doble+Pinta/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Doble+Pinta/Ojana+Doble+Pinta+1+Naranja.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Eucalipto/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Eucalipto/TIana+Eucalipto+1+verde.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Eucalipto/Tiana+Eucalipto+2+Verde.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Russia+Negros/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Russia+Negros/Russia+Negros+1+Negros.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eveline+Chita/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eveline+Chita/Eveline+Chita+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eveline+Chita/Eveline+Chita+2+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Bullock+Puma+Gris/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Bullock+Puma+Gris/Bullock+Puma+Gris+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Bullock+Puma+Gris/Bullock+Puma+Gris+2+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Roma+Coral+Nude/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Roma+Coral+Nude/Roma+Coral+Nude+1+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Roma+Coral+Nude/Roma+Coral+Nude+2+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Roma+Coral+Nude/Roma+Coral+Nude+3+Rosa.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Dino/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Dino/Ojana+Dino+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Dino/Ojana+Dino+2+Blanco.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tessa+Dalmata+Nude/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tessa+Dalmata+Nude/Tessa+Dalmata+Nude+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tessa+Dalmata+Nude/Tessa+Dalmata+Nude+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tessa+Dalmata+Nude/Tessa+Dalmata+ude+3+Estampado.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eleven+Negros/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eleven+Negros/eleven+Negros+1+Negros.jpg']</t>
-  </si>
-  <si>
-    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Verona+W/.DS_Store', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Verona+W/Verona+W+1+Estampado.jpg']</t>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Rose+Blancos/Rose+Blancos+1+Verde.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Rose+Blancos/Rose+Blancos+2+Verde.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Rose+Blancos/Rose+Blancos+3+Verde.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Estelares+Blanco+Ostra/Estelares+Blanco+Ostra+1+Blancos.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Doble+Pinta/Ojana+Doble+Pinta+1+Naranja.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Eucalipto/TIana+Eucalipto+1+verde.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tiana+Eucalipto/Tiana+Eucalipto+2+Verde.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Russia+Negros/Russia+Negros+1+Negros.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eveline+Chita/Eveline+Chita+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eveline+Chita/Eveline+Chita+2+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Bullock+Puma+Gris/Bullock+Puma+Gris+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Bullock+Puma+Gris/Bullock+Puma+Gris+2+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Roma+Coral+Nude/Roma+Coral+Nude+1+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Roma+Coral+Nude/Roma+Coral+Nude+2+Rosa.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Roma+Coral+Nude/Roma+Coral+Nude+3+Rosa.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Dino/Ojana+Dino+1+Blanco.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Ojana+Dino/Ojana+Dino+2+Blanco.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tessa+Dalmata+Nude/Tessa+Dalmata+Nude+1+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tessa+Dalmata+Nude/Tessa+Dalmata+Nude+2+Estampado.jpg', 'https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Tessa+Dalmata+Nude/Tessa+Dalmata+ude+3+Estampado.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Eleven+Negros/eleven+Negros+1+Negros.jpg']</t>
+  </si>
+  <si>
+    <t>['https://recursosmolova.s3.amazonaws.com/Products+Images/Naranjas/Verona+W/Verona+W+1+Estampado.jpg']</t>
   </si>
 </sst>
 </file>

--- a/app/Recursos Marcas/Naranjas/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Naranjas/Plantilla modificada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
   <si>
     <t>Referencia</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Color 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
   </si>
   <si>
     <t>Imágenes</t>
@@ -695,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,19 +744,16 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>175000</v>
@@ -768,27 +762,27 @@
         <v>140000</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>72</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>169900</v>
@@ -797,27 +791,27 @@
         <v>135920</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>169900</v>
@@ -826,27 +820,27 @@
         <v>135920</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>165000</v>
@@ -855,27 +849,27 @@
         <v>132000</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>169900</v>
@@ -884,27 +878,27 @@
         <v>135920</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>189900</v>
@@ -913,27 +907,27 @@
         <v>151920</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>160000</v>
@@ -942,27 +936,27 @@
         <v>128000</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>175000</v>
@@ -971,27 +965,27 @@
         <v>140000</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>179900</v>
@@ -1000,27 +994,27 @@
         <v>143920</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>169900</v>
@@ -1029,27 +1023,27 @@
         <v>135920</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>177000</v>
@@ -1058,27 +1052,27 @@
         <v>141600</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>74</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>160000</v>
@@ -1087,27 +1081,27 @@
         <v>128000</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>189900</v>
@@ -1116,27 +1110,27 @@
         <v>151920</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>175000</v>
@@ -1145,27 +1139,27 @@
         <v>140000</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>165000</v>
@@ -1174,27 +1168,27 @@
         <v>132000</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>180000</v>
@@ -1203,27 +1197,27 @@
         <v>144000</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>185000</v>
@@ -1232,27 +1226,27 @@
         <v>148000</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>79</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>175000</v>
@@ -1261,27 +1255,27 @@
         <v>140000</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>160000</v>
@@ -1290,27 +1284,27 @@
         <v>128000</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>180000</v>
@@ -1319,27 +1313,27 @@
         <v>144000</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>180000</v>
@@ -1348,27 +1342,27 @@
         <v>144000</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>170000</v>
@@ -1377,27 +1371,27 @@
         <v>136000</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>80</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>160000</v>
@@ -1406,27 +1400,27 @@
         <v>128000</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
-      </c>
-      <c r="P24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>185000</v>
@@ -1435,27 +1429,27 @@
         <v>148000</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>76</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26">
         <v>160000</v>
@@ -1464,27 +1458,27 @@
         <v>128000</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>189900</v>
@@ -1493,16 +1487,16 @@
         <v>151200</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s">
-        <v>107</v>
+        <v>76</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
